--- a/biology/Botanique/Odjaleschi/Odjaleschi.xlsx
+++ b/biology/Botanique/Odjaleschi/Odjaleschi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'  odjaleschi  est un cépage de Géorgie de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L' odjaleschi est un cépage de table et de cuve cultivé en Mingrélie, partie occidentale de la Géorgie. Il est un des meilleurs cépages du pays.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau très cotonneux à liseré faiblement carminé.
 Jeunes feuilles duveteuses, vert jaunâtre.
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de quatrième époque : 40 jours après le chasselas.
 </t>
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes  sont petites à moyennes et les baies sont de taille petite à moyenne. La grappe est cylindro-conique et moyennement compacte. Le cépage est très vigoureux et s'il est conduit à taille longue (appelé Maglari), il est très fertile et il peut produire jusqu'à 30 kg de raisin par cep. À taille courte, on obtient seulement 1,6 kg soit 30 à 35 hl/ha de vin. Il est très sensible à l'oïdium mais assez résistant au mildiou.
 Le vin rouge du même nom a une couleur intense et un arôme épicé bien prononcé. Il est assez fruité et il s'améliore avec un vieillissement.
@@ -638,7 +658,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'odjaleschi est connu sous les noms de chonouri, mechveliani, odjalèche, odjalechi, odjaleshi, odjelechi, odzhaleshi, ojaleschi, ojaleshi, orjelecchi, schonuri, schonouri, soinouri, svanouri
 </t>
